--- a/sorted_result/real_data_to_table.xlsx
+++ b/sorted_result/real_data_to_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayuheng/Documents/GitHub/AWNNDE/sorted_result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26C3945-9FA5-634F-AAC2-866504CF7B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF1B5FE-7DC2-2F45-BBD4-81B00382B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="740" windowWidth="27040" windowHeight="14380" xr2:uid="{3FDDD8C5-A898-8744-BECE-C66FE8FD5F29}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>method</t>
   </si>
@@ -86,25 +86,10 @@
     <t>letter</t>
   </si>
   <si>
-    <t>lympho</t>
-  </si>
-  <si>
-    <t>musk</t>
-  </si>
-  <si>
     <t>parkinsons</t>
   </si>
   <si>
     <t>pendigits</t>
-  </si>
-  <si>
-    <t>satellite</t>
-  </si>
-  <si>
-    <t>thyroid</t>
-  </si>
-  <si>
-    <t>vowels</t>
   </si>
   <si>
     <t>winequality</t>
@@ -504,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8E130A-818B-E446-A019-D1D29FAC9390}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="A27:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1151,73 +1136,73 @@
         <v>17</v>
       </c>
       <c r="B27" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3">
-        <v>48.14</v>
+        <v>-2406000000</v>
       </c>
       <c r="D27" s="3">
-        <v>-45.36</v>
+        <v>-2094000</v>
       </c>
       <c r="E27" s="3">
-        <v>-45.36</v>
+        <v>-2094000</v>
       </c>
       <c r="F27" s="3">
-        <v>-0.10244</v>
+        <v>-73.320000000000007</v>
       </c>
       <c r="G27" s="3">
-        <v>-5.1979999999999986E-3</v>
+        <v>-9.1080000000000008E-2</v>
       </c>
       <c r="H27" s="3">
-        <v>-5.1979999999999986E-3</v>
+        <v>-9.1080000000000008E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4"/>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="3">
-        <v>-102300</v>
+        <v>-2624000000000</v>
       </c>
       <c r="D28" s="3">
-        <v>-7172</v>
+        <v>-1588000000</v>
       </c>
       <c r="E28" s="3">
-        <v>-7172</v>
+        <v>-1588000000</v>
       </c>
       <c r="F28" s="3">
-        <v>-0.1118</v>
+        <v>-9544</v>
       </c>
       <c r="G28" s="3">
-        <v>-3.7540000000000002E-4</v>
+        <v>-0.12280000000000001</v>
       </c>
       <c r="H28" s="3">
-        <v>-3.7540000000000002E-4</v>
+        <v>-0.12280000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4"/>
       <c r="B29" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3">
-        <v>-24360</v>
+        <v>-4.012E+17</v>
       </c>
       <c r="D29" s="3">
-        <v>-1102.8599999999999</v>
+        <v>-244540000000000</v>
       </c>
       <c r="E29" s="3">
-        <v>-1102.8599999999999</v>
+        <v>-244540000000000</v>
       </c>
       <c r="F29" s="3">
-        <v>-7.2860000000000008E-2</v>
+        <v>-2196000</v>
       </c>
       <c r="G29" s="3">
-        <v>-8.0199999999999998E-5</v>
+        <v>-0.33700000000000002</v>
       </c>
       <c r="H29" s="3">
-        <v>-8.0199999999999998E-5</v>
+        <v>-0.33700000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1225,73 +1210,73 @@
         <v>18</v>
       </c>
       <c r="B30" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3">
-        <v>-3.9440000000001243E+138</v>
+        <v>31280</v>
       </c>
       <c r="D30" s="3">
-        <v>-3.520000000000062E+118</v>
+        <v>14.348000000000001</v>
       </c>
       <c r="E30" s="3">
-        <v>-3.520000000000062E+118</v>
+        <v>14.348000000000001</v>
       </c>
       <c r="F30" s="3">
-        <v>-3.586E+25</v>
+        <v>-3.226</v>
       </c>
       <c r="G30" s="3">
-        <v>-2.2179999999999998E-22</v>
+        <v>14.348000000000001</v>
       </c>
       <c r="H30" s="3">
-        <v>-2.2179999999999998E-22</v>
+        <v>14.348000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="4"/>
       <c r="B31" s="2">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3">
-        <v>-1.1841137999999999E+236</v>
+        <v>-16360</v>
       </c>
       <c r="D31" s="3">
-        <v>-1.0972000000000001E+184</v>
+        <v>-200.6</v>
       </c>
       <c r="E31" s="3">
-        <v>-1.0972000000000001E+184</v>
+        <v>-200.6</v>
       </c>
       <c r="F31" s="3">
-        <v>-7.9400000000000003E+45</v>
+        <v>-22.7</v>
       </c>
       <c r="G31" s="3">
-        <v>-1.43E-27</v>
+        <v>-3.4020000000000001E-3</v>
       </c>
       <c r="H31" s="3">
-        <v>-1.43E-27</v>
+        <v>-3.4020000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="4"/>
       <c r="B32" s="2">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3">
-        <v>-3.5400000000000001E+281</v>
+        <v>-16820000</v>
       </c>
       <c r="D32" s="3">
-        <v>-3.5400000000000001E+281</v>
+        <v>-289400</v>
       </c>
       <c r="E32" s="3">
-        <v>-3.5400000000000001E+281</v>
+        <v>-289400</v>
       </c>
       <c r="F32" s="3">
-        <v>-4.8500000000000004E+65</v>
+        <v>-2112</v>
       </c>
       <c r="G32" s="3">
-        <v>-2.6259999999999998E-29</v>
+        <v>-8.5260000000000002E-4</v>
       </c>
       <c r="H32" s="3">
-        <v>-2.6259999999999998E-29</v>
+        <v>-8.5260000000000002E-4</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1299,73 +1284,73 @@
         <v>19</v>
       </c>
       <c r="B33" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3">
-        <v>-2406000000</v>
+        <v>150382500</v>
       </c>
       <c r="D33" s="3">
-        <v>-2094000</v>
+        <v>848.92000000000007</v>
       </c>
       <c r="E33" s="3">
-        <v>-2094000</v>
+        <v>848.92000000000007</v>
       </c>
       <c r="F33" s="3">
-        <v>-73.320000000000007</v>
+        <v>-19.72</v>
       </c>
       <c r="G33" s="3">
-        <v>-9.1080000000000008E-2</v>
+        <v>848.92000000000007</v>
       </c>
       <c r="H33" s="3">
-        <v>-9.1080000000000008E-2</v>
+        <v>848.92000000000007</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="4"/>
       <c r="B34" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C34" s="3">
-        <v>-2624000000000</v>
+        <v>-60200000000</v>
       </c>
       <c r="D34" s="3">
-        <v>-1588000000</v>
+        <v>-92380</v>
       </c>
       <c r="E34" s="3">
-        <v>-1588000000</v>
+        <v>-92380</v>
       </c>
       <c r="F34" s="3">
-        <v>-9544</v>
+        <v>-149.6</v>
       </c>
       <c r="G34" s="3">
-        <v>-0.12280000000000001</v>
+        <v>-18.02</v>
       </c>
       <c r="H34" s="3">
-        <v>-0.12280000000000001</v>
+        <v>-18.02</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="4"/>
       <c r="B35" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3">
-        <v>-4.012E+17</v>
+        <v>-454400000000000</v>
       </c>
       <c r="D35" s="3">
-        <v>-244540000000000</v>
+        <v>-662400000</v>
       </c>
       <c r="E35" s="3">
-        <v>-244540000000000</v>
+        <v>-662400000</v>
       </c>
       <c r="F35" s="3">
-        <v>-2196000</v>
+        <v>-1510</v>
       </c>
       <c r="G35" s="3">
-        <v>-0.33700000000000002</v>
+        <v>-87.7</v>
       </c>
       <c r="H35" s="3">
-        <v>-0.33700000000000002</v>
+        <v>-87.7</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1373,451 +1358,82 @@
         <v>20</v>
       </c>
       <c r="B36" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" s="3">
-        <v>31280</v>
+        <v>203000</v>
       </c>
       <c r="D36" s="3">
-        <v>14.348000000000001</v>
+        <v>218492</v>
       </c>
       <c r="E36" s="3">
-        <v>14.348000000000001</v>
+        <v>218492</v>
       </c>
       <c r="F36" s="3">
-        <v>-3.226</v>
+        <v>-6.0039999999999996</v>
       </c>
       <c r="G36" s="3">
-        <v>14.348000000000001</v>
+        <v>218492</v>
       </c>
       <c r="H36" s="3">
-        <v>14.348000000000001</v>
+        <v>218492</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4"/>
       <c r="B37" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>-16360</v>
+        <v>-34380000</v>
       </c>
       <c r="D37" s="3">
-        <v>-200.6</v>
+        <v>1429.4</v>
       </c>
       <c r="E37" s="3">
-        <v>-200.6</v>
+        <v>1429.4</v>
       </c>
       <c r="F37" s="3">
-        <v>-22.7</v>
+        <v>-14.18</v>
       </c>
       <c r="G37" s="3">
-        <v>-3.4020000000000001E-3</v>
+        <v>1429.4</v>
       </c>
       <c r="H37" s="3">
-        <v>-3.4020000000000001E-3</v>
+        <v>1429.4</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
       <c r="B38" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C38" s="3">
-        <v>-16820000</v>
+        <v>-66080000000000</v>
       </c>
       <c r="D38" s="3">
-        <v>-289400</v>
+        <v>22922.400000000001</v>
       </c>
       <c r="E38" s="3">
-        <v>-289400</v>
+        <v>22922.400000000001</v>
       </c>
       <c r="F38" s="3">
-        <v>-2112</v>
+        <v>-144.4</v>
       </c>
       <c r="G38" s="3">
-        <v>-8.5260000000000002E-4</v>
+        <v>22922.400000000001</v>
       </c>
       <c r="H38" s="3">
-        <v>-8.5260000000000002E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="2">
-        <v>11</v>
-      </c>
-      <c r="C39" s="3">
-        <v>-855000000</v>
-      </c>
-      <c r="D39" s="3">
-        <v>-20200000</v>
-      </c>
-      <c r="E39" s="3">
-        <v>-20200000</v>
-      </c>
-      <c r="F39" s="3">
-        <v>-9044</v>
-      </c>
-      <c r="G39" s="3">
-        <v>-1.03E-2</v>
-      </c>
-      <c r="H39" s="3">
-        <v>-1.03E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="4"/>
-      <c r="B40" s="2">
-        <v>18</v>
-      </c>
-      <c r="C40" s="3">
-        <v>-3702000000000000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>-223240000000000</v>
-      </c>
-      <c r="E40" s="3">
-        <v>-223240000000000</v>
-      </c>
-      <c r="F40" s="3">
-        <v>-79200000</v>
-      </c>
-      <c r="G40" s="3">
-        <v>-2.8420000000000001E-2</v>
-      </c>
-      <c r="H40" s="3">
-        <v>-2.8420000000000001E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="4"/>
-      <c r="B41" s="2">
-        <v>26</v>
-      </c>
-      <c r="C41" s="3">
-        <v>-1.2100000000000001E+23</v>
-      </c>
-      <c r="D41" s="3">
-        <v>-2.332E+21</v>
-      </c>
-      <c r="E41" s="3">
-        <v>-2.332E+21</v>
-      </c>
-      <c r="F41" s="3">
-        <v>-3078000000000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>-0.66059999999999997</v>
-      </c>
-      <c r="H41" s="3">
-        <v>-0.66059999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="2">
-        <v>2</v>
-      </c>
-      <c r="C42" s="3">
-        <v>7110</v>
-      </c>
-      <c r="D42" s="3">
-        <v>-1.216</v>
-      </c>
-      <c r="E42" s="3">
-        <v>21.98</v>
-      </c>
-      <c r="F42" s="3">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="G42" s="3">
-        <v>21.98</v>
-      </c>
-      <c r="H42" s="3">
-        <v>21.98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="4"/>
-      <c r="B43" s="2">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3">
-        <v>-84500000</v>
-      </c>
-      <c r="D43" s="3">
-        <v>458</v>
-      </c>
-      <c r="E43" s="3">
-        <v>458</v>
-      </c>
-      <c r="F43" s="3">
-        <v>-17</v>
-      </c>
-      <c r="G43" s="3">
-        <v>458</v>
-      </c>
-      <c r="H43" s="3">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="4"/>
-      <c r="B44" s="2">
-        <v>5</v>
-      </c>
-      <c r="C44" s="3">
-        <v>-371800000000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>-1356.28</v>
-      </c>
-      <c r="E44" s="3">
-        <v>-1356.28</v>
-      </c>
-      <c r="F44" s="3">
-        <v>-59.8</v>
-      </c>
-      <c r="G44" s="3">
-        <v>-1356.28</v>
-      </c>
-      <c r="H44" s="3">
-        <v>-1356.28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="2">
-        <v>4</v>
-      </c>
-      <c r="C45" s="3">
-        <v>155240</v>
-      </c>
-      <c r="D45" s="3">
-        <v>155320</v>
-      </c>
-      <c r="E45" s="3">
-        <v>226.7</v>
-      </c>
-      <c r="F45" s="3">
-        <v>-6.3119999999999994</v>
-      </c>
-      <c r="G45" s="3">
-        <v>155320</v>
-      </c>
-      <c r="H45" s="3">
-        <v>155320</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="4"/>
-      <c r="B46" s="2">
-        <v>6</v>
-      </c>
-      <c r="C46" s="3">
-        <v>-206600</v>
-      </c>
-      <c r="D46" s="3">
-        <v>-206600</v>
-      </c>
-      <c r="E46" s="3">
-        <v>-94.320000000000007</v>
-      </c>
-      <c r="F46" s="3">
-        <v>-37.18</v>
-      </c>
-      <c r="G46" s="3">
-        <v>-0.22900000000000001</v>
-      </c>
-      <c r="H46" s="3">
-        <v>-0.22900000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="4"/>
-      <c r="B47" s="2">
-        <v>9</v>
-      </c>
-      <c r="C47" s="3">
-        <v>-3451740000</v>
-      </c>
-      <c r="D47" s="3">
-        <v>-3451740000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>-478000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>-876.6</v>
-      </c>
-      <c r="G47" s="3">
-        <v>-0.30020000000000002</v>
-      </c>
-      <c r="H47" s="3">
-        <v>-0.30020000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="2">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3">
-        <v>150382500</v>
-      </c>
-      <c r="D48" s="3">
-        <v>848.92000000000007</v>
-      </c>
-      <c r="E48" s="3">
-        <v>848.92000000000007</v>
-      </c>
-      <c r="F48" s="3">
-        <v>-19.72</v>
-      </c>
-      <c r="G48" s="3">
-        <v>848.92000000000007</v>
-      </c>
-      <c r="H48" s="3">
-        <v>848.92000000000007</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="4"/>
-      <c r="B49" s="2">
-        <v>6</v>
-      </c>
-      <c r="C49" s="3">
-        <v>-60200000000</v>
-      </c>
-      <c r="D49" s="3">
-        <v>-92380</v>
-      </c>
-      <c r="E49" s="3">
-        <v>-92380</v>
-      </c>
-      <c r="F49" s="3">
-        <v>-149.6</v>
-      </c>
-      <c r="G49" s="3">
-        <v>-18.02</v>
-      </c>
-      <c r="H49" s="3">
-        <v>-18.02</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2">
-        <v>8</v>
-      </c>
-      <c r="C50" s="3">
-        <v>-454400000000000</v>
-      </c>
-      <c r="D50" s="3">
-        <v>-662400000</v>
-      </c>
-      <c r="E50" s="3">
-        <v>-662400000</v>
-      </c>
-      <c r="F50" s="3">
-        <v>-1510</v>
-      </c>
-      <c r="G50" s="3">
-        <v>-87.7</v>
-      </c>
-      <c r="H50" s="3">
-        <v>-87.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="2">
-        <v>3</v>
-      </c>
-      <c r="C51" s="3">
-        <v>203000</v>
-      </c>
-      <c r="D51" s="3">
-        <v>218492</v>
-      </c>
-      <c r="E51" s="3">
-        <v>218492</v>
-      </c>
-      <c r="F51" s="3">
-        <v>-6.0039999999999996</v>
-      </c>
-      <c r="G51" s="3">
-        <v>218492</v>
-      </c>
-      <c r="H51" s="3">
-        <v>218492</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="4"/>
-      <c r="B52" s="2">
-        <v>4</v>
-      </c>
-      <c r="C52" s="3">
-        <v>-34380000</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1429.4</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1429.4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>-14.18</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1429.4</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1429.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="4"/>
-      <c r="B53" s="2">
-        <v>6</v>
-      </c>
-      <c r="C53" s="3">
-        <v>-66080000000000</v>
-      </c>
-      <c r="D53" s="3">
         <v>22922.400000000001</v>
       </c>
-      <c r="E53" s="3">
-        <v>22922.400000000001</v>
-      </c>
-      <c r="F53" s="3">
-        <v>-144.4</v>
-      </c>
-      <c r="G53" s="3">
-        <v>22922.400000000001</v>
-      </c>
-      <c r="H53" s="3">
-        <v>22922.400000000001</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="12">
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
@@ -1825,12 +1441,6 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
